--- a/Process Analytics Course Materials 2023/advanced_datasets/3 Process and Product Design/Roller Compactor/RCDoeData.xlsx
+++ b/Process Analytics Course Materials 2023/advanced_datasets/3 Process and Product Design/Roller Compactor/RCDoeData.xlsx
@@ -7388,13 +7388,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E69246-F95F-4C70-AAF6-23CB15D9B398}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE45D6A8-6C21-4450-9BD9-EE048474FC4D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{002AD6A1-1658-4CF4-B5EB-140B5FB69050}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BA9B64D-1EF4-4FEE-97E4-F7A6ADE6324B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C86C152E-F63C-43F6-9AE1-436FA64ABA23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D015E8-A9A6-43DE-85AE-0BF5ACDB48BA}"/>
 </file>